--- a/biology/Botanique/Friedrich_Reinitzer/Friedrich_Reinitzer.xlsx
+++ b/biology/Botanique/Friedrich_Reinitzer/Friedrich_Reinitzer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Friedrich Richard Reinitzer (25 février 1857, Prague - 16 février 1927, Graz) est un botaniste et chimiste autrichien. À la fin des années 1880, en travaillant avec du benzoate de cholestéryle, un dérivé du cholestérol, il découvrit les propriétés des cristaux liquides, appelés ainsi par Otto Lehmann, plus tard[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Friedrich Richard Reinitzer (25 février 1857, Prague - 16 février 1927, Graz) est un botaniste et chimiste autrichien. À la fin des années 1880, en travaillant avec du benzoate de cholestéryle, un dérivé du cholestérol, il découvrit les propriétés des cristaux liquides, appelés ainsi par Otto Lehmann, plus tard.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Reinitzer est issu d'une famille bohémienne allemande de Prague. Il étudia la chimie dans l'université technique allemande de Prague. En 1883, il y fut nommé professeur particulier. En 1895, il changea d'université pour l'université technique de Graz et de 1909 à 1910 il y travailla comme recteur.
-En 1888, il découvrit le comportement étrange de ce qui sera par la suite appelé cristal liquide. Pour expliquer ce phénomène, il collabora avec le physicien Otto Lehmann d'Aix-la-Chapelle[1]. La découverte suscita énormément d'intérêt à l'époque, mais le faible potentiel pratique fit vite retomber l'attention qu'on y portait.
+En 1888, il découvrit le comportement étrange de ce qui sera par la suite appelé cristal liquide. Pour expliquer ce phénomène, il collabora avec le physicien Otto Lehmann d'Aix-la-Chapelle. La découverte suscita énormément d'intérêt à l'époque, mais le faible potentiel pratique fit vite retomber l'attention qu'on y portait.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Œuvres sélectionnées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Über die physiologische Bedeutung der Transpiration von Pflanzen In Sitzungsberichte der Akademie der Wissenschaften, Wien, 1881
 Analyse eines vegetabilen Fettes In Sitzungsberichte der Akademie der Wissenschaften, Wien, 1882
